--- a/cypress/e2e/variables/envWeekly LoadEU000010500028.xlsx
+++ b/cypress/e2e/variables/envWeekly LoadEU000010500028.xlsx
@@ -31,25 +31,25 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">https://qsgbcz.docker.localhost/login#login</t>
+    <t xml:space="preserve">https://qsgbcz.lmnas.com/login#login</t>
   </si>
   <si>
     <t xml:space="preserve">Target</t>
   </si>
   <si>
-    <t xml:space="preserve">https://qsgbcz.docker.localhost/app/sales-order</t>
+    <t xml:space="preserve">https://qsgbcz.lmnas.com/app/sales-order</t>
   </si>
   <si>
     <t xml:space="preserve">Target2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://qsgbcz.docker.localhost/app/query-report/Weekly%20Load?from_date=2025-01-06&amp;to_date=2025-12-26</t>
+    <t xml:space="preserve">https://qsgbcz.lmnas.com/app/query-report/Weekly%20Load?from_date=2025-01-06&amp;to_date=2025-12-26</t>
   </si>
   <si>
     <t xml:space="preserve">Target3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://qsgbcz.docker.localhost/app/query-report/Weekly%20Load</t>
+    <t xml:space="preserve">https://qsgbcz.lmnas.com/app/query-report/Weekly%20Load</t>
   </si>
   <si>
     <t xml:space="preserve">Purchase order</t>
@@ -291,11 +291,11 @@
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -539,10 +539,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="login" display="https://qsgbcz.docker.localhost/login#login"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://qsgbcz.docker.localhost/app/sales-order"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://qsgbcz.docker.localhost/app/query-report/Weekly%20Load?from_date=2025-01-06&amp;to_date=2025-12-26"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://qsgbcz.docker.localhost/app/query-report/Weekly%20Load"/>
+    <hyperlink ref="B2" r:id="rId1" location="login" display="https://qsgbcz.lmnas.com/login#login"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://qsgbcz.lmnas.com/app/sales-order"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://qsgbcz.lmnas.com/app/query-report/Weekly%20Load?from_date=2025-01-06&amp;to_date=2025-12-26"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://qsgbcz.lmnas.com/app/query-report/Weekly%20Load"/>
     <hyperlink ref="B29" r:id="rId5" display="https://qsgbcz.lmnas.com/app/delivery-note"/>
     <hyperlink ref="B30" r:id="rId6" display="https://qsgbcz.lmnas.com/app/repost-item-valuation"/>
   </hyperlinks>

--- a/cypress/e2e/variables/envWeekly LoadEU000010500028.xlsx
+++ b/cypress/e2e/variables/envWeekly LoadEU000010500028.xlsx
@@ -292,7 +292,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
